--- a/.init/inspections.xlsx
+++ b/.init/inspections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Coding\django-yolobuilds\.init\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4151FC-1F8D-4748-9C82-3970AF86E877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F683DD-0C4A-4652-BA97-D74E515C41CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13788" yWindow="252" windowWidth="9252" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="insp_type" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Approved</t>
   </si>
@@ -68,9 +68,6 @@
     <t>inspection_type</t>
   </si>
   <si>
-    <t>** Permit Final **</t>
-  </si>
-  <si>
     <t>* Final C&amp;D</t>
   </si>
   <si>
@@ -81,18 +78,6 @@
   </si>
   <si>
     <t>* Final PW</t>
-  </si>
-  <si>
-    <t>** PERMIT FINAL **</t>
-  </si>
-  <si>
-    <t>AgExempt.1.Fnd/Site/EC2</t>
-  </si>
-  <si>
-    <t>AgExempt.2.Final/C&amp;D/EC3</t>
-  </si>
-  <si>
-    <t>AgExempt.3.Annual</t>
   </si>
   <si>
     <t>Arch.Insul.Ceiling</t>
@@ -297,7 +282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,14 +419,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -788,7 +765,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -799,7 +776,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -902,10 +878,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F250A345-CB0E-4C1E-B012-6D5484C730A2}" name="Table13" displayName="Table13" ref="A1:A73" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:A73" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A10">
-    <sortCondition ref="A1:A10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F250A345-CB0E-4C1E-B012-6D5484C730A2}" name="Table13" displayName="Table13" ref="B1:B68" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="B1:B68" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B6">
+    <sortCondition ref="B1:B6"/>
   </sortState>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="inspection_type" dataDxfId="5"/>
@@ -921,9 +897,9 @@
     <sortCondition ref="B1:B8"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="3" xr3:uid="{1F69A5B7-4875-411C-9F9F-A91A6F9CD566}" name="id" dataDxfId="0"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="result" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="requirements" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{1F69A5B7-4875-411C-9F9F-A91A6F9CD566}" name="id" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="result" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="requirements" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1226,381 +1202,357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4CFB6A-95B0-4D4C-A072-B12C8F52C166}">
-  <dimension ref="A1:A73"/>
+  <dimension ref="B1:B68"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.77734375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="32.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1616,7 +1568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1630,13 +1582,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
